--- a/Fichier Config.xlsx
+++ b/Fichier Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_74d\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654BB7E3-36C3-47CB-BAFA-4A3F7C5479EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CEA5A9-44DF-4818-BC65-A7068B76D3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>Dictionnaire nom variables(brut)</t>
   </si>
   <si>
-    <t>{'Conducteur': 'DriverID','Trajet': 'Tripnumber', 'type du système': 'SystemType','Timestamp': 'Timestamp','Longitude': 'Longitude', 'Latitude': 'Latitude','pente': 'Slope', 'Consommation de carburant': 'ConsoFuel', 'vitesse de boîte': 'Gear', 'Distance cumulée': 'Distance_cum',  'Acceleration lissée': 'smoothed_Acceleration_MM', 'vitesse instantanee': 'InstantSpeed_CAN','limite de la vitesse': 'SpeedLimit','temps (min)': 'temps_min', 'Acceleration': 'Acceleration'}</t>
+    <t>{'Conducteur': 'DriverID','Trajet': 'Tripnumber', 'type du système': 'SystemType', 'noms': 'names', 'Timestamp': 'Timestamp','Longitude': 'Longitude', 'Latitude': 'Latitude','pente': 'Slope', 'Consommation de carburant': 'ConsoFuel', 'vitesse de boîte': 'Gear', 'Distance cumulée': 'Distance_cum',  'Acceleration lissée': 'smoothed_Acceleration_MM', 'vitesse instantanee': 'InstantSpeed_CAN','limite de la vitesse': 'SpeedLimit','temps (min)': 'temps_min', 'Acceleration': 'Acceleration'}</t>
   </si>
   <si>
     <t>Latitude</t>
